--- a/nodes_source_analyses/energy/energy/energy_hydrogen_wind_turbine_offshore.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_hydrogen_wind_turbine_offshore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB2E09-BA8A-E244-97BB-2B3B31E1A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6CBB7-4630-D34F-92AE-3ED06BDB9E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15600" yWindow="-33340" windowWidth="30080" windowHeight="16080" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4800" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="200">
   <si>
     <t>Source</t>
   </si>
@@ -771,6 +771,9 @@
   <si>
     <t>RWE</t>
   </si>
+  <si>
+    <t>Quintel assumption: this attribute has no working purpose for modelling of this technology and is therefore set to 1.0</t>
+  </si>
 </sst>
 </file>
 
@@ -783,12 +786,19 @@
     <numFmt numFmtId="166" formatCode="0.0000000000000"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1262,533 +1272,527 @@
   </borders>
   <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="250" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="250" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="251">
     <cellStyle name="Comma" xfId="250" builtinId="3"/>
@@ -3030,7 +3034,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3066,27 +3070,27 @@
       <c r="C4" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="95"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
@@ -3104,31 +3108,31 @@
         <v>85</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="103"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="105"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="1"/>
@@ -3136,91 +3140,91 @@
       <c r="C13" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="105"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="47"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="105"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="105"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="105"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="105"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="48"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="105"/>
+      <c r="D23" s="95"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3236,7 +3240,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3255,30 +3259,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="100"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1"/>
     <row r="7" spans="2:10">
@@ -3353,14 +3357,14 @@
       <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="24">
-        <v>0.92</v>
+      <c r="E12" s="30">
+        <v>1</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="84" t="s">
-        <v>151</v>
+      <c r="I12" s="155" t="s">
+        <v>199</v>
       </c>
       <c r="J12" s="55"/>
     </row>
@@ -3573,11 +3577,11 @@
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="111">
         <v>0.04</v>
       </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="110" t="s">
         <v>195</v>
       </c>
       <c r="H24" s="28"/>
@@ -3600,7 +3604,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="123" t="s">
+      <c r="I25" s="112" t="s">
         <v>197</v>
       </c>
       <c r="J25" s="55"/>
@@ -3637,7 +3641,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="28"/>
-      <c r="I28" s="123" t="s">
+      <c r="I28" s="112" t="s">
         <v>198</v>
       </c>
       <c r="J28" s="55"/>
@@ -3700,7 +3704,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="123" t="s">
+      <c r="I31" s="112" t="s">
         <v>197</v>
       </c>
       <c r="J31" s="55"/>
@@ -3733,7 +3737,7 @@
   <dimension ref="B1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3783,7 +3787,7 @@
       <c r="R2" s="64"/>
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
-      <c r="U2" s="124"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="2:21" s="6" customFormat="1">
       <c r="B3" s="15"/>
@@ -3797,22 +3801,22 @@
         <v>80</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125" t="s">
+      <c r="H3" s="114"/>
+      <c r="I3" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125" t="s">
+      <c r="L3" s="114"/>
+      <c r="M3" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="125"/>
+      <c r="N3" s="114"/>
       <c r="O3" s="42" t="s">
         <v>22</v>
       </c>
@@ -3825,18 +3829,18 @@
         <v>67</v>
       </c>
       <c r="T3" s="42"/>
-      <c r="U3" s="126" t="s">
+      <c r="U3" s="115" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="65"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="43"/>
-      <c r="H4" s="128"/>
+      <c r="H4" s="117"/>
       <c r="I4" s="43"/>
       <c r="J4" s="66"/>
       <c r="K4" s="43"/>
@@ -3854,538 +3858,409 @@
       <c r="S4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="129"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="118"/>
     </row>
     <row r="5" spans="2:21" ht="17" thickBot="1">
       <c r="B5" s="65"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="133"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="U5" s="121"/>
     </row>
     <row r="6" spans="2:21" ht="17" thickBot="1">
       <c r="B6" s="65"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="123" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="67">
         <v>3</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="133"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="U6" s="121"/>
     </row>
     <row r="7" spans="2:21" ht="16" customHeight="1">
       <c r="B7" s="65"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="133"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="G7" s="86"/>
+      <c r="U7" s="121"/>
     </row>
     <row r="8" spans="2:21" ht="18" customHeight="1">
       <c r="B8" s="65"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="133"/>
+      <c r="C8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="U8" s="121"/>
     </row>
     <row r="9" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="65"/>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="133"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="U9" s="121"/>
     </row>
     <row r="10" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="116" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="68">
         <f>ROUND(1.5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
       <c r="O10" s="69">
         <f>Notes!D76/12</f>
         <v>1.5</v>
       </c>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="133"/>
+      <c r="U10" s="121"/>
     </row>
     <row r="11" spans="2:21" ht="18" thickBot="1">
       <c r="B11" s="65"/>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="123" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="70">
         <f>ROUND(20,0)</f>
         <v>20</v>
       </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="70">
         <f>Notes!D117</f>
         <v>20</v>
       </c>
-      <c r="L11" s="145"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="70">
         <f>Notes!D130</f>
         <v>20</v>
       </c>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
       <c r="Q11" s="69">
         <f>Notes!D180</f>
         <v>20</v>
       </c>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="147" t="s">
+      <c r="U11" s="134" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18" thickBot="1">
       <c r="B12" s="65"/>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="123" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="71">
         <f>ROUND(I12,1)</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="141"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="128"/>
       <c r="I12" s="68">
         <f>Notes!D209*Notes!D209*0.000001</f>
         <v>0.49</v>
       </c>
-      <c r="J12" s="141"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="147" t="s">
+      <c r="J12" s="128"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="U12" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="65"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="147"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="U13" s="134"/>
     </row>
     <row r="14" spans="2:21" ht="17" thickBot="1">
       <c r="B14" s="65"/>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="133"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="U14" s="121"/>
     </row>
     <row r="15" spans="2:21" ht="17" thickBot="1">
       <c r="B15" s="65"/>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="122" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="73">
         <f>ROUND(G15,2)</f>
         <v>5480367.1500000004</v>
       </c>
-      <c r="F15" s="151"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="90">
         <f>Notes!D8</f>
         <v>5480367.1496142</v>
       </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="153" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="O15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="U15" s="139" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="17" thickBot="1">
       <c r="B16" s="65"/>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="123" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="73"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="153"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="U16" s="139"/>
     </row>
     <row r="17" spans="2:21" ht="17" thickBot="1">
       <c r="B17" s="65"/>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="123" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="73"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
       <c r="O17" s="73">
         <f>Notes!D62</f>
         <v>3444</v>
       </c>
-      <c r="P17" s="132"/>
       <c r="Q17" s="73">
         <f>Notes!D169</f>
         <v>3950</v>
       </c>
-      <c r="R17" s="141"/>
+      <c r="R17" s="128"/>
       <c r="S17" s="73">
         <f>Notes!D195</f>
         <v>4218</v>
       </c>
-      <c r="T17" s="132"/>
-      <c r="U17" s="153"/>
+      <c r="U17" s="139"/>
     </row>
     <row r="18" spans="2:21" ht="17" thickBot="1">
       <c r="B18" s="65"/>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="123" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="73"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="153" t="s">
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="U18" s="139" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="17" thickBot="1">
       <c r="B19" s="65"/>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="141" t="s">
         <v>140</v>
       </c>
       <c r="E19" s="73"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="153"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="72"/>
+      <c r="O19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="U19" s="139"/>
     </row>
     <row r="20" spans="2:21" ht="17" thickBot="1">
       <c r="B20" s="65"/>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="123" t="s">
         <v>111</v>
       </c>
       <c r="E20" s="73">
         <f>ROUND(G20,2)</f>
         <v>218010</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="90">
         <f>Notes!D10</f>
         <v>218010</v>
       </c>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="153"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="72"/>
+      <c r="O20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="U20" s="139"/>
     </row>
     <row r="21" spans="2:21" ht="17" thickBot="1">
       <c r="B21" s="65"/>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="141" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="75"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
       <c r="S21" s="75">
         <f>Notes!D198</f>
         <v>101</v>
       </c>
-      <c r="T21" s="132"/>
-      <c r="U21" s="153"/>
+      <c r="U21" s="139"/>
     </row>
     <row r="22" spans="2:21" ht="17" thickBot="1">
       <c r="B22" s="65"/>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="123" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="73"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="153"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="U22" s="139"/>
     </row>
     <row r="23" spans="2:21" ht="17" thickBot="1">
-      <c r="B23" s="158"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
-      <c r="U23" s="160"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4714,7 +4589,7 @@
       <c r="C25" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="145" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="39" t="s">
